--- a/DataGenerator/excel/language.xlsx
+++ b/DataGenerator/excel/language.xlsx
@@ -21,16 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,11 +35,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是普通中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am #0# English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样#0#fsjl#1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是#0#哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test #0# sdf #1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#0#fsdf#1#jlfks#2#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +104,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,15 +172,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,77 +484,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
